--- a/数据整理/stocks/其他/EQNR-挪威国家石油公司.xlsx
+++ b/数据整理/stocks/其他/EQNR-挪威国家石油公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/EQNR-挪威国家石油公司.xlsx
+++ b/数据整理/stocks/其他/EQNR-挪威国家石油公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -726,4 +727,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银标普全球精选自然资源等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/EQNR-挪威国家石油公司.xlsx
+++ b/数据整理/stocks/其他/EQNR-挪威国家石油公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/EQNR-挪威国家石油公司.xlsx
+++ b/数据整理/stocks/其他/EQNR-挪威国家石油公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,14 +920,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -915,11 +1010,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0.14</v>
@@ -931,14 +1026,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -947,13 +1042,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.31</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/EQNR-挪威国家石油公司.xlsx
+++ b/数据整理/stocks/其他/EQNR-挪威国家石油公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,14 +1015,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1010,14 +1053,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>000049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银标普全球精选自然资源等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -1026,11 +1159,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0.14</v>
@@ -1042,14 +1175,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -1058,13 +1191,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.31</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/EQNR-挪威国家石油公司.xlsx
+++ b/数据整理/stocks/其他/EQNR-挪威国家石油公司.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1159,14 +1224,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>000049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银标普全球精选自然资源等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -1175,11 +1346,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0.14</v>
@@ -1191,14 +1362,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1378,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.31</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/EQNR-挪威国家石油公司.xlsx
+++ b/数据整理/stocks/其他/EQNR-挪威国家石油公司.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,95 +457,451 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3099</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银标普全球精选自然资源等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银标普全球精选自然资源等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -572,7 +928,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -612,26 +968,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>94.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1900</t>
+          <t>0.1112</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -639,7 +995,139 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银标普全球精选自然资源等权重指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -733,139 +1221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.06</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1336</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000049</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中银标普全球精选自然资源等权重指数(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.46</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -892,7 +1248,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -932,328 +1288,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1112</t>
+          <t>0.1900</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1240</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000049</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中银标普全球精选自然资源等权重指数(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.72</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1068</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>014982</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1068</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000049</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中银标普全球精选自然资源等权重指数(QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1267,144 +1321,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.31</v>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/EQNR-挪威国家石油公司.xlsx
+++ b/数据整理/stocks/其他/EQNR-挪威国家石油公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -552,11 +553,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0.14</v>
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -901,7 +1050,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -995,7 +1144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1120,100 +1269,6 @@
       </c>
       <c r="H3" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1425</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1288,22 +1343,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1900</t>
+          <t>0.1425</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1316,6 +1371,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/EQNR-挪威国家石油公司.xlsx
+++ b/数据整理/stocks/其他/EQNR-挪威国家石油公司.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +490,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
@@ -569,11 +570,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>0.14</v>
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,128 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数 (QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,22 +794,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0860</t>
+          <t>0.0806</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -721,22 +832,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -749,6 +860,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160416</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014982</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安标普全球石油指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -918,7 +1161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1050,7 +1293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1144,7 +1387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1269,100 +1512,6 @@
       </c>
       <c r="H3" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安标普全球石油指数 (QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1425</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1437,22 +1586,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1900</t>
+          <t>0.1425</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1472,51 +1621,51 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1531,22 +1680,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.20</t>
+          <t>7.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.11</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3099</t>
+          <t>0.1900</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1554,6 +1703,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>